--- a/Oracle/샘플-성적-학생데이터(2024-03-15).xlsx
+++ b/Oracle/샘플-성적-학생데이터(2024-03-15).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\DBMS\Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97960B8B-27E7-486C-ADDC-4DC2822675DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EC811-2A00-4B1F-96A2-BB24AB3BA956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="성적 데이터" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="443">
   <si>
     <t>학번</t>
   </si>
@@ -1369,6 +1369,14 @@
   </si>
   <si>
     <t>점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1977,11 +1985,14 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7031,16 +7042,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB945BB8-32A6-450E-A074-1ACDA152A68D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7129,6 +7141,24 @@
       </c>
       <c r="C8">
         <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C8)</f>
+        <v>68.285714285714292</v>
       </c>
     </row>
   </sheetData>
